--- a/FlaskApp/sample/TrainDS.xlsx
+++ b/FlaskApp/sample/TrainDS.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazelnut/Documents/Workspace/SprintPOC/FlaskApp/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6362A3C-56BB-BC4E-A10D-6F3B4D09EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696ECD33-D3AB-2D4A-8541-0A34FAC67935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{AC19A05B-D100-FD44-95D0-434263228A2D}"/>
+    <workbookView xWindow="19040" yWindow="500" windowWidth="14560" windowHeight="19500" activeTab="3" xr2:uid="{AC19A05B-D100-FD44-95D0-434263228A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="KeywordIdentifiers" sheetId="2" r:id="rId3"/>
-    <sheet name="FutureOther Questions" sheetId="4" r:id="rId4"/>
+    <sheet name="POS Tags" sheetId="5" r:id="rId4"/>
+    <sheet name="FutureOther Questions" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
   <si>
     <t>Question</t>
   </si>
@@ -222,19 +223,143 @@
   </si>
   <si>
     <t>i_DiscoveryField</t>
+  </si>
+  <si>
+    <t>CC coordinating conjunction </t>
+  </si>
+  <si>
+    <t>CD cardinal digit </t>
+  </si>
+  <si>
+    <t>EX existential there (like: “there is” … think of it like “there exists”) </t>
+  </si>
+  <si>
+    <t>FW foreign word </t>
+  </si>
+  <si>
+    <t>IN preposition/subordinating conjunction </t>
+  </si>
+  <si>
+    <t>JJ adjective – ‘big’ </t>
+  </si>
+  <si>
+    <t>JJR adjective, comparative – ‘bigger’ </t>
+  </si>
+  <si>
+    <t>JJS adjective, superlative – ‘biggest’ </t>
+  </si>
+  <si>
+    <t>LS list marker 1) </t>
+  </si>
+  <si>
+    <t>MD modal – could, will </t>
+  </si>
+  <si>
+    <t>NN noun, singular ‘- desk’ </t>
+  </si>
+  <si>
+    <t>NNS noun plural – ‘desks’ </t>
+  </si>
+  <si>
+    <t>NNP proper noun, singular – ‘Harrison’ </t>
+  </si>
+  <si>
+    <t>NNPS proper noun, plural – ‘Americans’ </t>
+  </si>
+  <si>
+    <t>PDT predeterminer – ‘all the kids’ </t>
+  </si>
+  <si>
+    <t>POS possessive ending parent’s </t>
+  </si>
+  <si>
+    <t>PRP personal pronoun –  I, he, she </t>
+  </si>
+  <si>
+    <t>PRP$ possessive pronoun – my, his, hers </t>
+  </si>
+  <si>
+    <t>RB adverb – very, silently, </t>
+  </si>
+  <si>
+    <t>RBR adverb, comparative – better </t>
+  </si>
+  <si>
+    <t>RBS adverb, superlative – best </t>
+  </si>
+  <si>
+    <t>RP particle – give up </t>
+  </si>
+  <si>
+    <t>TO – to go ‘to’ the store. </t>
+  </si>
+  <si>
+    <t>UH interjection – errrrrrrrm </t>
+  </si>
+  <si>
+    <t>VB verb, base form – take </t>
+  </si>
+  <si>
+    <t>VBD verb, past tense – took </t>
+  </si>
+  <si>
+    <t>VBG verb, gerund/present participle – taking </t>
+  </si>
+  <si>
+    <t>VBN verb, past participle – taken </t>
+  </si>
+  <si>
+    <t>VBP verb, sing. present, non-3d – take </t>
+  </si>
+  <si>
+    <t>VBZ verb, 3rd person sing. present – takes </t>
+  </si>
+  <si>
+    <t>WDT wh-determiner – which </t>
+  </si>
+  <si>
+    <t>WP wh-pronoun – who, what </t>
+  </si>
+  <si>
+    <t>WP$ possessive wh-pronoun, eg- whose </t>
+  </si>
+  <si>
+    <t>WRB wh-adverb, eg- where, when</t>
+  </si>
+  <si>
+    <t>And, but, or</t>
+  </si>
+  <si>
+    <t>My Comments</t>
+  </si>
+  <si>
+    <t>Modifies, Decribes, or introduces a noun</t>
+  </si>
+  <si>
+    <t>DT determiner</t>
+  </si>
+  <si>
+    <t>the determiner before the determiner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,9 +382,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B9308E-9909-BE4A-9465-C5F91E261011}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,6 +1116,280 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED982767-AA53-7949-9B41-DCF491BAB322}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51E6B6C-3539-A648-A2CE-8531A73CCBD4}">
   <dimension ref="A1:A8"/>
   <sheetViews>
